--- a/resource/FinancialStatement-2023-Tahunan-BBRI-fix.xlsx
+++ b/resource/FinancialStatement-2023-Tahunan-BBRI-fix.xlsx
@@ -9240,7 +9240,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9257,7 +9257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -9270,7 +9270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -9285,12 +9285,6 @@
       <u/>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -9450,20 +9444,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -9495,16 +9489,16 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -9576,10 +9570,10 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -9600,40 +9594,40 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -9967,7 +9961,7 @@
       </c>
       <c r="B3" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="65" t="s">
         <v>1613</v>
       </c>
@@ -9975,7 +9969,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="65" t="s">
         <v>1615</v>
       </c>
@@ -9987,13 +9981,13 @@
       <c r="A6" s="21"/>
       <c r="B6" s="62"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A7" s="66" t="s">
         <v>1617</v>
       </c>
       <c r="B7" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A8" s="65" t="s">
         <v>1618</v>
       </c>
@@ -10001,7 +9995,7 @@
         <v>40544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A9" s="65" t="s">
         <v>1619</v>
       </c>
@@ -10009,7 +10003,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A10" s="65" t="s">
         <v>1620</v>
       </c>
@@ -10017,7 +10011,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A11" s="65" t="s">
         <v>1618</v>
       </c>
@@ -10025,7 +10019,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A12" s="65" t="s">
         <v>1619</v>
       </c>
@@ -10033,7 +10027,7 @@
         <v>40543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A13" s="65" t="s">
         <v>1620</v>
       </c>
@@ -10041,7 +10035,7 @@
         <v>40543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A14" s="65" t="s">
         <v>1618</v>
       </c>
@@ -10049,7 +10043,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A15" s="65" t="s">
         <v>1619</v>
       </c>
@@ -10057,7 +10051,7 @@
         <v>40451</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A16" s="65" t="s">
         <v>1620</v>
       </c>
@@ -10065,7 +10059,7 @@
         <v>40451</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A17" s="65" t="s">
         <v>1620</v>
       </c>
@@ -10083,35 +10077,37 @@
       </c>
       <c r="B19" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A20" s="65" t="s">
         <v>1612</v>
       </c>
       <c r="B20" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A21" s="65" t="s">
         <v>1613</v>
       </c>
       <c r="B21" s="64">
         <f>rap.context.identifier</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A22" s="65" t="s">
         <v>1615</v>
       </c>
       <c r="B22" s="64">
         <f>rap.context.scheme</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A23" s="65" t="s">
         <v>1617</v>
       </c>
       <c r="B23" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A24" s="65" t="s">
         <v>1618</v>
       </c>
@@ -10120,7 +10116,7 @@
         <v>25569.291666666668</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A25" s="65" t="s">
         <v>1619</v>
       </c>
@@ -10139,35 +10135,37 @@
       </c>
       <c r="B27" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A28" s="65" t="s">
         <v>1612</v>
       </c>
       <c r="B28" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A29" s="65" t="s">
         <v>1613</v>
       </c>
       <c r="B29" s="64">
         <f>rap.context.identifier</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A30" s="65" t="s">
         <v>1615</v>
       </c>
       <c r="B30" s="64">
         <f>rap.context.scheme</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A31" s="65" t="s">
         <v>1617</v>
       </c>
       <c r="B31" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A32" s="65" t="s">
         <v>1620</v>
       </c>
@@ -10186,35 +10184,37 @@
       </c>
       <c r="B34" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A35" s="65" t="s">
         <v>1612</v>
       </c>
       <c r="B35" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A36" s="65" t="s">
         <v>1613</v>
       </c>
       <c r="B36" s="64">
         <f>rap.context.identifier</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A37" s="65" t="s">
         <v>1615</v>
       </c>
       <c r="B37" s="64">
         <f>rap.context.scheme</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A38" s="65" t="s">
         <v>1617</v>
       </c>
       <c r="B38" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A39" s="65" t="s">
         <v>1618</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>25569.291666666668</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A40" s="65" t="s">
         <v>1619</v>
       </c>
@@ -10242,35 +10242,37 @@
       </c>
       <c r="B42" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A43" s="65" t="s">
         <v>1612</v>
       </c>
       <c r="B43" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A44" s="65" t="s">
         <v>1613</v>
       </c>
       <c r="B44" s="64">
         <f>rap.context.identifier</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A45" s="65" t="s">
         <v>1615</v>
       </c>
       <c r="B45" s="64">
         <f>rap.context.scheme</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A46" s="65" t="s">
         <v>1617</v>
       </c>
       <c r="B46" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A47" s="65" t="s">
         <v>1620</v>
       </c>
@@ -10289,35 +10291,37 @@
       </c>
       <c r="B49" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A50" s="65" t="s">
         <v>1612</v>
       </c>
       <c r="B50" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A51" s="65" t="s">
         <v>1613</v>
       </c>
       <c r="B51" s="64">
         <f>rap.context.identifier</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A52" s="65" t="s">
         <v>1615</v>
       </c>
       <c r="B52" s="64">
         <f>rap.context.scheme</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A53" s="65" t="s">
         <v>1617</v>
       </c>
       <c r="B53" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A54" s="65" t="s">
         <v>1618</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>25569.291666666668</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A55" s="65" t="s">
         <v>1619</v>
       </c>
@@ -10345,35 +10349,37 @@
       </c>
       <c r="B57" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A58" s="65" t="s">
         <v>1612</v>
       </c>
       <c r="B58" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A59" s="65" t="s">
         <v>1613</v>
       </c>
       <c r="B59" s="64">
         <f>rap.context.identifier</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A60" s="65" t="s">
         <v>1615</v>
       </c>
       <c r="B60" s="64">
         <f>rap.context.scheme</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A61" s="65" t="s">
         <v>1617</v>
       </c>
       <c r="B61" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A62" s="65" t="s">
         <v>1620</v>
       </c>
@@ -10392,35 +10398,37 @@
       </c>
       <c r="B64" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A65" s="65" t="s">
         <v>1612</v>
       </c>
       <c r="B65" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A66" s="65" t="s">
         <v>1613</v>
       </c>
       <c r="B66" s="64">
         <f>rap.context.identifier</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A67" s="65" t="s">
         <v>1615</v>
       </c>
       <c r="B67" s="64">
         <f>rap.context.scheme</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="10">
+        <v>25569.291666666668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A68" s="65" t="s">
         <v>1617</v>
       </c>
       <c r="B68" s="64"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A69" s="65" t="s">
         <v>1620</v>
       </c>
@@ -10492,11 +10500,11 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -10511,7 +10519,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="27"/>
       <c r="B4" s="12"/>
       <c r="C4" s="28" t="s">
@@ -10528,7 +10536,7 @@
       <c r="L4" s="27"/>
       <c r="M4" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="28" t="s">
@@ -12179,7 +12187,7 @@
       </c>
       <c r="M81" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" customFormat="1" s="6">
       <c r="A82" s="38" t="s">
         <v>313</v>
       </c>
@@ -12198,7 +12206,7 @@
       <c r="L82" s="40"/>
       <c r="M82" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A83" s="27"/>
       <c r="B83" s="12"/>
       <c r="C83" s="28" t="s">
@@ -12215,7 +12223,7 @@
       <c r="L83" s="27"/>
       <c r="M83" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="28" t="s">
@@ -12358,11 +12366,11 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -12377,7 +12385,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="27"/>
       <c r="B4" s="12"/>
       <c r="C4" s="28" t="s">
@@ -12394,7 +12402,7 @@
       <c r="L4" s="27"/>
       <c r="M4" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="28" t="s">
@@ -14047,7 +14055,7 @@
       </c>
       <c r="M81" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" customFormat="1" s="6">
       <c r="A82" s="38" t="s">
         <v>313</v>
       </c>
@@ -14066,7 +14074,7 @@
       <c r="L82" s="40"/>
       <c r="M82" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A83" s="27"/>
       <c r="B83" s="12"/>
       <c r="C83" s="28" t="s">
@@ -14083,7 +14091,7 @@
       <c r="L83" s="27"/>
       <c r="M83" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="28" t="s">
@@ -14184,20 +14192,20 @@
     <col min="3" max="3" style="19" width="42.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5">
-      <c r="A1" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="6">
+      <c r="A1" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>307</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -14205,14 +14213,14 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+      <c r="C4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="14" t="s">
         <v>307</v>
       </c>
@@ -14221,7 +14229,7 @@
         <v>308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A6" s="14" t="s">
         <v>310</v>
       </c>
@@ -17768,7 +17776,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="100.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="100.86214285714286" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="61" width="50.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -17809,20 +17817,20 @@
     <col min="3" max="3" style="19" width="42.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A1" s="7" t="s">
         <v>1510</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A2" s="9"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>1511</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -17830,14 +17838,14 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="12"/>
       <c r="B4" s="28" t="s">
         <v>1109</v>
       </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+      <c r="C4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="14" t="s">
         <v>1511</v>
       </c>
@@ -17846,7 +17854,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A6" s="14" t="s">
         <v>1513</v>
       </c>
@@ -17857,7 +17865,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A7" s="14" t="s">
         <v>1516</v>
       </c>
@@ -17866,7 +17874,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A8" s="14" t="s">
         <v>1518</v>
       </c>
@@ -17877,7 +17885,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A9" s="14" t="s">
         <v>1521</v>
       </c>
@@ -17888,7 +17896,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A10" s="14" t="s">
         <v>1524</v>
       </c>
@@ -17899,7 +17907,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A11" s="14" t="s">
         <v>1526</v>
       </c>
@@ -17910,7 +17918,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A12" s="14" t="s">
         <v>1528</v>
       </c>
@@ -17921,7 +17929,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A13" s="14" t="s">
         <v>1530</v>
       </c>
@@ -17932,7 +17940,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A14" s="14" t="s">
         <v>1532</v>
       </c>
@@ -17943,7 +17951,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A15" s="14" t="s">
         <v>1534</v>
       </c>
@@ -17954,7 +17962,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A16" s="14" t="s">
         <v>1536</v>
       </c>
@@ -17965,7 +17973,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A17" s="14" t="s">
         <v>1538</v>
       </c>
@@ -17976,7 +17984,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A18" s="14" t="s">
         <v>1540</v>
       </c>
@@ -17987,7 +17995,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A19" s="14" t="s">
         <v>1542</v>
       </c>
@@ -17998,7 +18006,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A20" s="14" t="s">
         <v>1544</v>
       </c>
@@ -18009,7 +18017,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A21" s="14" t="s">
         <v>1546</v>
       </c>
@@ -18020,7 +18028,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A22" s="14" t="s">
         <v>1548</v>
       </c>
@@ -18029,7 +18037,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A23" s="14" t="s">
         <v>1550</v>
       </c>
@@ -18040,7 +18048,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A24" s="14" t="s">
         <v>1553</v>
       </c>
@@ -18051,7 +18059,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A25" s="14" t="s">
         <v>1556</v>
       </c>
@@ -18062,7 +18070,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A26" s="14" t="s">
         <v>1559</v>
       </c>
@@ -18073,7 +18081,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A27" s="14" t="s">
         <v>1562</v>
       </c>
@@ -18084,7 +18092,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A28" s="14" t="s">
         <v>1564</v>
       </c>
@@ -18095,7 +18103,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A29" s="14" t="s">
         <v>1567</v>
       </c>
@@ -18106,7 +18114,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A30" s="14" t="s">
         <v>1569</v>
       </c>
@@ -18115,7 +18123,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A31" s="14" t="s">
         <v>1571</v>
       </c>
@@ -18126,7 +18134,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A32" s="14" t="s">
         <v>1573</v>
       </c>
@@ -18137,7 +18145,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A33" s="14" t="s">
         <v>1575</v>
       </c>
@@ -18148,7 +18156,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A34" s="14" t="s">
         <v>1577</v>
       </c>
@@ -18157,7 +18165,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A35" s="14" t="s">
         <v>1579</v>
       </c>
@@ -18166,7 +18174,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A36" s="14" t="s">
         <v>1581</v>
       </c>
@@ -18177,7 +18185,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A37" s="14" t="s">
         <v>1583</v>
       </c>
@@ -18188,7 +18196,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A38" s="14" t="s">
         <v>1585</v>
       </c>
@@ -18199,7 +18207,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A39" s="14" t="s">
         <v>1587</v>
       </c>
@@ -18210,7 +18218,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A40" s="14" t="s">
         <v>1590</v>
       </c>
@@ -18221,7 +18229,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A41" s="14" t="s">
         <v>1593</v>
       </c>
@@ -18232,7 +18240,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A42" s="14" t="s">
         <v>1596</v>
       </c>
@@ -18241,7 +18249,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A43" s="14" t="s">
         <v>1598</v>
       </c>
@@ -18252,7 +18260,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A44" s="14" t="s">
         <v>1601</v>
       </c>
@@ -18263,7 +18271,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A45" s="14" t="s">
         <v>1603</v>
       </c>
@@ -18274,7 +18282,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A46" s="14" t="s">
         <v>1605</v>
       </c>
@@ -18310,22 +18318,22 @@
     <col min="4" max="4" style="19" width="42.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="6">
+      <c r="A1" s="7" t="s">
         <v>1106</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A2" s="9"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>1107</v>
       </c>
       <c r="B3" s="25"/>
@@ -18334,7 +18342,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="12"/>
       <c r="B4" s="28" t="s">
         <v>1109</v>
@@ -18342,9 +18350,9 @@
       <c r="C4" s="28" t="s">
         <v>1110</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+      <c r="D4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="14" t="s">
         <v>1107</v>
       </c>
@@ -18354,7 +18362,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A6" s="14" t="s">
         <v>1111</v>
       </c>
@@ -18364,7 +18372,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A7" s="14" t="s">
         <v>1113</v>
       </c>
@@ -18378,7 +18386,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A8" s="14" t="s">
         <v>1115</v>
       </c>
@@ -18388,7 +18396,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A9" s="14" t="s">
         <v>1117</v>
       </c>
@@ -18402,7 +18410,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A10" s="14" t="s">
         <v>1119</v>
       </c>
@@ -18412,7 +18420,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A11" s="14" t="s">
         <v>1121</v>
       </c>
@@ -18426,7 +18434,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A12" s="14" t="s">
         <v>1123</v>
       </c>
@@ -18440,7 +18448,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="29.25" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="29.25" customFormat="1" s="6">
       <c r="A13" s="14" t="s">
         <v>1125</v>
       </c>
@@ -18454,7 +18462,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A14" s="14" t="s">
         <v>450</v>
       </c>
@@ -18464,7 +18472,7 @@
         <v>451</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="29.25" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="29.25" customFormat="1" s="6">
       <c r="A15" s="14" t="s">
         <v>1127</v>
       </c>
@@ -18478,7 +18486,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="29.25" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="29.25" customFormat="1" s="6">
       <c r="A16" s="14" t="s">
         <v>1129</v>
       </c>
@@ -18492,7 +18500,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A17" s="14" t="s">
         <v>1131</v>
       </c>
@@ -18506,7 +18514,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A18" s="14" t="s">
         <v>1133</v>
       </c>
@@ -18516,7 +18524,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A19" s="14" t="s">
         <v>1135</v>
       </c>
@@ -18526,7 +18534,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A20" s="14" t="s">
         <v>1137</v>
       </c>
@@ -18536,7 +18544,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A21" s="14" t="s">
         <v>1139</v>
       </c>
@@ -18546,7 +18554,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A22" s="14" t="s">
         <v>1141</v>
       </c>
@@ -18556,7 +18564,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A23" s="14" t="s">
         <v>1143</v>
       </c>
@@ -18566,7 +18574,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A24" s="14" t="s">
         <v>1145</v>
       </c>
@@ -18576,7 +18584,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A25" s="14" t="s">
         <v>1147</v>
       </c>
@@ -18590,7 +18598,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A26" s="14" t="s">
         <v>1149</v>
       </c>
@@ -18604,7 +18612,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A27" s="14" t="s">
         <v>1151</v>
       </c>
@@ -18618,7 +18626,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A28" s="14" t="s">
         <v>1153</v>
       </c>
@@ -18628,7 +18636,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A29" s="14" t="s">
         <v>1155</v>
       </c>
@@ -18642,7 +18650,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A30" s="14" t="s">
         <v>1157</v>
       </c>
@@ -18652,7 +18660,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A31" s="14" t="s">
         <v>1159</v>
       </c>
@@ -18666,7 +18674,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A32" s="14" t="s">
         <v>1161</v>
       </c>
@@ -18680,7 +18688,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A33" s="14" t="s">
         <v>1163</v>
       </c>
@@ -18694,7 +18702,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A34" s="14" t="s">
         <v>1165</v>
       </c>
@@ -18704,7 +18712,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A35" s="14" t="s">
         <v>1167</v>
       </c>
@@ -18718,7 +18726,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A36" s="14" t="s">
         <v>1169</v>
       </c>
@@ -18732,7 +18740,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A37" s="14" t="s">
         <v>1171</v>
       </c>
@@ -18746,7 +18754,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A38" s="14" t="s">
         <v>1173</v>
       </c>
@@ -18756,7 +18764,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A39" s="14" t="s">
         <v>1175</v>
       </c>
@@ -18770,7 +18778,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A40" s="14" t="s">
         <v>1177</v>
       </c>
@@ -18780,7 +18788,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A41" s="14" t="s">
         <v>1179</v>
       </c>
@@ -18790,7 +18798,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A42" s="14" t="s">
         <v>1181</v>
       </c>
@@ -18804,7 +18812,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A43" s="14" t="s">
         <v>1183</v>
       </c>
@@ -18818,7 +18826,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A44" s="14" t="s">
         <v>1185</v>
       </c>
@@ -18832,7 +18840,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A45" s="14" t="s">
         <v>1187</v>
       </c>
@@ -18842,7 +18850,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A46" s="14" t="s">
         <v>1189</v>
       </c>
@@ -18852,7 +18860,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A47" s="14" t="s">
         <v>1191</v>
       </c>
@@ -18862,7 +18870,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A48" s="14" t="s">
         <v>1193</v>
       </c>
@@ -18872,7 +18880,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A49" s="14" t="s">
         <v>1195</v>
       </c>
@@ -18882,7 +18890,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A50" s="14" t="s">
         <v>1197</v>
       </c>
@@ -18892,7 +18900,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A51" s="14" t="s">
         <v>1199</v>
       </c>
@@ -18902,7 +18910,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A52" s="14" t="s">
         <v>1201</v>
       </c>
@@ -18912,7 +18920,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A53" s="14" t="s">
         <v>1203</v>
       </c>
@@ -18922,7 +18930,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A54" s="14" t="s">
         <v>1205</v>
       </c>
@@ -18932,7 +18940,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A55" s="14" t="s">
         <v>1207</v>
       </c>
@@ -18942,7 +18950,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A56" s="14" t="s">
         <v>1209</v>
       </c>
@@ -18952,7 +18960,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A57" s="14" t="s">
         <v>1211</v>
       </c>
@@ -18962,7 +18970,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A58" s="14" t="s">
         <v>1213</v>
       </c>
@@ -18972,7 +18980,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A59" s="14" t="s">
         <v>1215</v>
       </c>
@@ -18982,7 +18990,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A60" s="14" t="s">
         <v>1217</v>
       </c>
@@ -18992,7 +19000,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A61" s="14" t="s">
         <v>1219</v>
       </c>
@@ -19002,7 +19010,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A62" s="14" t="s">
         <v>467</v>
       </c>
@@ -19012,7 +19020,7 @@
         <v>468</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A63" s="14" t="s">
         <v>1221</v>
       </c>
@@ -19022,7 +19030,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A64" s="14" t="s">
         <v>1223</v>
       </c>
@@ -19032,7 +19040,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A65" s="14" t="s">
         <v>1225</v>
       </c>
@@ -19042,7 +19050,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A66" s="14" t="s">
         <v>1227</v>
       </c>
@@ -19052,7 +19060,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A67" s="14" t="s">
         <v>1229</v>
       </c>
@@ -19062,7 +19070,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A68" s="14" t="s">
         <v>1231</v>
       </c>
@@ -19072,7 +19080,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A69" s="14" t="s">
         <v>1233</v>
       </c>
@@ -19082,7 +19090,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A70" s="14" t="s">
         <v>1235</v>
       </c>
@@ -19092,7 +19100,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A71" s="14" t="s">
         <v>1237</v>
       </c>
@@ -19102,7 +19110,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A72" s="14" t="s">
         <v>1239</v>
       </c>
@@ -19112,7 +19120,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A73" s="14" t="s">
         <v>1241</v>
       </c>
@@ -19122,7 +19130,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A74" s="14" t="s">
         <v>1243</v>
       </c>
@@ -19132,7 +19140,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A75" s="14" t="s">
         <v>1245</v>
       </c>
@@ -19142,7 +19150,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A76" s="14" t="s">
         <v>1247</v>
       </c>
@@ -19152,7 +19160,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A77" s="14" t="s">
         <v>1249</v>
       </c>
@@ -19162,7 +19170,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A78" s="14" t="s">
         <v>1251</v>
       </c>
@@ -19172,7 +19180,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A79" s="14" t="s">
         <v>1253</v>
       </c>
@@ -19182,7 +19190,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A80" s="14" t="s">
         <v>1255</v>
       </c>
@@ -19192,7 +19200,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A81" s="14" t="s">
         <v>1257</v>
       </c>
@@ -19202,7 +19210,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A82" s="14" t="s">
         <v>1259</v>
       </c>
@@ -19212,7 +19220,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A83" s="14" t="s">
         <v>1261</v>
       </c>
@@ -19222,7 +19230,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A84" s="14" t="s">
         <v>1263</v>
       </c>
@@ -19232,7 +19240,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A85" s="14" t="s">
         <v>1265</v>
       </c>
@@ -19242,7 +19250,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A86" s="14" t="s">
         <v>1267</v>
       </c>
@@ -19252,7 +19260,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A87" s="14" t="s">
         <v>1269</v>
       </c>
@@ -19262,7 +19270,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A88" s="14" t="s">
         <v>1271</v>
       </c>
@@ -19272,7 +19280,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A89" s="14" t="s">
         <v>1273</v>
       </c>
@@ -19282,7 +19290,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A90" s="14" t="s">
         <v>1275</v>
       </c>
@@ -19292,7 +19300,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A91" s="14" t="s">
         <v>1277</v>
       </c>
@@ -19306,7 +19314,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A92" s="14" t="s">
         <v>1279</v>
       </c>
@@ -19320,7 +19328,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A93" s="14" t="s">
         <v>1281</v>
       </c>
@@ -19334,7 +19342,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A94" s="14" t="s">
         <v>1283</v>
       </c>
@@ -19344,7 +19352,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A95" s="14" t="s">
         <v>1285</v>
       </c>
@@ -19354,7 +19362,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A96" s="14" t="s">
         <v>1287</v>
       </c>
@@ -19364,7 +19372,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A97" s="14" t="s">
         <v>1289</v>
       </c>
@@ -19374,7 +19382,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A98" s="14" t="s">
         <v>1291</v>
       </c>
@@ -19384,7 +19392,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A99" s="14" t="s">
         <v>1293</v>
       </c>
@@ -19394,7 +19402,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A100" s="14" t="s">
         <v>1294</v>
       </c>
@@ -19404,7 +19412,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A101" s="14" t="s">
         <v>1296</v>
       </c>
@@ -19414,7 +19422,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A102" s="14" t="s">
         <v>1298</v>
       </c>
@@ -19424,7 +19432,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A103" s="14" t="s">
         <v>1300</v>
       </c>
@@ -19438,7 +19446,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A104" s="14" t="s">
         <v>1302</v>
       </c>
@@ -19448,7 +19456,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A105" s="14" t="s">
         <v>1304</v>
       </c>
@@ -19458,7 +19466,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A106" s="14" t="s">
         <v>1306</v>
       </c>
@@ -19472,7 +19480,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A107" s="14" t="s">
         <v>459</v>
       </c>
@@ -19486,7 +19494,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A108" s="14" t="s">
         <v>1309</v>
       </c>
@@ -19496,7 +19504,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A109" s="14" t="s">
         <v>1311</v>
       </c>
@@ -19506,7 +19514,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A110" s="14" t="s">
         <v>458</v>
       </c>
@@ -19516,7 +19524,7 @@
         <v>458</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A111" s="14" t="s">
         <v>1313</v>
       </c>
@@ -19526,7 +19534,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A112" s="14" t="s">
         <v>456</v>
       </c>
@@ -19536,7 +19544,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A113" s="14" t="s">
         <v>1315</v>
       </c>
@@ -19546,7 +19554,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A114" s="14" t="s">
         <v>313</v>
       </c>
@@ -19556,7 +19564,7 @@
         <v>314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A115" s="14" t="s">
         <v>381</v>
       </c>
@@ -19566,7 +19574,7 @@
         <v>382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A116" s="14" t="s">
         <v>1317</v>
       </c>
@@ -19576,7 +19584,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A117" s="14" t="s">
         <v>1319</v>
       </c>
@@ -19586,7 +19594,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A118" s="14" t="s">
         <v>1321</v>
       </c>
@@ -19600,7 +19608,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A119" s="14" t="s">
         <v>1323</v>
       </c>
@@ -19614,7 +19622,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A120" s="14" t="s">
         <v>1325</v>
       </c>
@@ -19624,7 +19632,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A121" s="14" t="s">
         <v>1327</v>
       </c>
@@ -19634,7 +19642,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A122" s="14" t="s">
         <v>1329</v>
       </c>
@@ -19648,7 +19656,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A123" s="14" t="s">
         <v>1331</v>
       </c>
@@ -19658,7 +19666,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A124" s="14" t="s">
         <v>1333</v>
       </c>
@@ -19668,7 +19676,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A125" s="14" t="s">
         <v>1335</v>
       </c>
@@ -19678,7 +19686,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A126" s="14" t="s">
         <v>1337</v>
       </c>
@@ -19688,7 +19696,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A127" s="14" t="s">
         <v>1339</v>
       </c>
@@ -19702,7 +19710,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A128" s="14" t="s">
         <v>1341</v>
       </c>
@@ -19716,7 +19724,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A129" s="14" t="s">
         <v>1343</v>
       </c>
@@ -19726,7 +19734,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A130" s="14" t="s">
         <v>1345</v>
       </c>
@@ -19736,7 +19744,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A131" s="14" t="s">
         <v>1347</v>
       </c>
@@ -19746,7 +19754,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A132" s="14" t="s">
         <v>1349</v>
       </c>
@@ -19756,7 +19764,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A133" s="14" t="s">
         <v>1351</v>
       </c>
@@ -19770,7 +19778,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A134" s="14" t="s">
         <v>1353</v>
       </c>
@@ -19784,7 +19792,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A135" s="14" t="s">
         <v>1355</v>
       </c>
@@ -19794,7 +19802,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A136" s="14" t="s">
         <v>1357</v>
       </c>
@@ -19804,7 +19812,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A137" s="14" t="s">
         <v>1359</v>
       </c>
@@ -19814,7 +19822,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A138" s="14" t="s">
         <v>1361</v>
       </c>
@@ -19824,7 +19832,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A139" s="14" t="s">
         <v>1363</v>
       </c>
@@ -19838,7 +19846,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A140" s="14" t="s">
         <v>1365</v>
       </c>
@@ -19852,7 +19860,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A141" s="14" t="s">
         <v>1367</v>
       </c>
@@ -19862,7 +19870,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A142" s="14" t="s">
         <v>1369</v>
       </c>
@@ -19872,7 +19880,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A143" s="14" t="s">
         <v>1371</v>
       </c>
@@ -19882,7 +19890,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A144" s="14" t="s">
         <v>1373</v>
       </c>
@@ -19892,7 +19900,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A145" s="14" t="s">
         <v>1375</v>
       </c>
@@ -19906,7 +19914,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A146" s="14" t="s">
         <v>1377</v>
       </c>
@@ -19920,7 +19928,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A147" s="14" t="s">
         <v>1379</v>
       </c>
@@ -19934,7 +19942,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A148" s="14" t="s">
         <v>1381</v>
       </c>
@@ -19944,7 +19952,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A149" s="14" t="s">
         <v>1383</v>
       </c>
@@ -19958,7 +19966,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A150" s="14" t="s">
         <v>1385</v>
       </c>
@@ -19968,7 +19976,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A151" s="14" t="s">
         <v>1387</v>
       </c>
@@ -19978,7 +19986,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A152" s="14" t="s">
         <v>1389</v>
       </c>
@@ -19988,7 +19996,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A153" s="14" t="s">
         <v>1391</v>
       </c>
@@ -19998,7 +20006,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A154" s="14" t="s">
         <v>1393</v>
       </c>
@@ -20008,7 +20016,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A155" s="14" t="s">
         <v>1395</v>
       </c>
@@ -20018,7 +20026,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A156" s="14" t="s">
         <v>1397</v>
       </c>
@@ -20028,7 +20036,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A157" s="14" t="s">
         <v>1399</v>
       </c>
@@ -20042,7 +20050,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A158" s="14" t="s">
         <v>1401</v>
       </c>
@@ -20052,7 +20060,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A159" s="14" t="s">
         <v>1403</v>
       </c>
@@ -20062,7 +20070,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A160" s="14" t="s">
         <v>1405</v>
       </c>
@@ -20072,7 +20080,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A161" s="14" t="s">
         <v>1407</v>
       </c>
@@ -20082,7 +20090,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A162" s="14" t="s">
         <v>1409</v>
       </c>
@@ -20092,7 +20100,7 @@
         <v>427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A163" s="14" t="s">
         <v>1410</v>
       </c>
@@ -20106,7 +20114,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A164" s="14" t="s">
         <v>1412</v>
       </c>
@@ -20120,7 +20128,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A165" s="14" t="s">
         <v>1414</v>
       </c>
@@ -20130,7 +20138,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A166" s="14" t="s">
         <v>1416</v>
       </c>
@@ -20140,7 +20148,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A167" s="14" t="s">
         <v>1418</v>
       </c>
@@ -20154,7 +20162,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A168" s="14" t="s">
         <v>1420</v>
       </c>
@@ -20164,7 +20172,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A169" s="14" t="s">
         <v>473</v>
       </c>
@@ -20174,7 +20182,7 @@
         <v>474</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A170" s="14" t="s">
         <v>1421</v>
       </c>
@@ -20184,7 +20192,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A171" s="14" t="s">
         <v>1423</v>
       </c>
@@ -20194,7 +20202,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A172" s="14" t="s">
         <v>1425</v>
       </c>
@@ -20204,7 +20212,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A173" s="14" t="s">
         <v>1427</v>
       </c>
@@ -20214,7 +20222,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A174" s="14" t="s">
         <v>428</v>
       </c>
@@ -20224,7 +20232,7 @@
         <v>429</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A175" s="14" t="s">
         <v>469</v>
       </c>
@@ -20234,7 +20242,7 @@
         <v>470</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A176" s="14" t="s">
         <v>1429</v>
       </c>
@@ -20244,7 +20252,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A177" s="14" t="s">
         <v>1431</v>
       </c>
@@ -20254,7 +20262,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A178" s="14" t="s">
         <v>1433</v>
       </c>
@@ -20268,7 +20276,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A179" s="14" t="s">
         <v>1435</v>
       </c>
@@ -20278,7 +20286,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A180" s="14" t="s">
         <v>1437</v>
       </c>
@@ -20292,7 +20300,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A181" s="14" t="s">
         <v>1439</v>
       </c>
@@ -20302,7 +20310,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A182" s="14" t="s">
         <v>1441</v>
       </c>
@@ -20312,7 +20320,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A183" s="14" t="s">
         <v>1443</v>
       </c>
@@ -20326,7 +20334,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A184" s="14" t="s">
         <v>1445</v>
       </c>
@@ -20340,7 +20348,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A185" s="14" t="s">
         <v>1447</v>
       </c>
@@ -20350,7 +20358,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A186" s="14" t="s">
         <v>1449</v>
       </c>
@@ -20364,7 +20372,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A187" s="14" t="s">
         <v>1451</v>
       </c>
@@ -20374,7 +20382,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A188" s="14" t="s">
         <v>1453</v>
       </c>
@@ -20388,7 +20396,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A189" s="14" t="s">
         <v>1455</v>
       </c>
@@ -20398,7 +20406,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A190" s="14" t="s">
         <v>1457</v>
       </c>
@@ -20408,7 +20416,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A191" s="14" t="s">
         <v>1459</v>
       </c>
@@ -20418,7 +20426,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A192" s="14" t="s">
         <v>1461</v>
       </c>
@@ -20428,7 +20436,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A193" s="14" t="s">
         <v>1463</v>
       </c>
@@ -20438,7 +20446,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A194" s="14" t="s">
         <v>1465</v>
       </c>
@@ -20448,7 +20456,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A195" s="14" t="s">
         <v>1467</v>
       </c>
@@ -20458,7 +20466,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A196" s="14" t="s">
         <v>1469</v>
       </c>
@@ -20468,7 +20476,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A197" s="14" t="s">
         <v>1471</v>
       </c>
@@ -20478,7 +20486,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A198" s="14" t="s">
         <v>1473</v>
       </c>
@@ -20488,7 +20496,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A199" s="14" t="s">
         <v>1475</v>
       </c>
@@ -20498,7 +20506,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A200" s="14" t="s">
         <v>1477</v>
       </c>
@@ -20508,7 +20516,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A201" s="14" t="s">
         <v>1459</v>
       </c>
@@ -20518,7 +20526,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A202" s="14" t="s">
         <v>1478</v>
       </c>
@@ -20528,7 +20536,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A203" s="14" t="s">
         <v>1471</v>
       </c>
@@ -20538,7 +20546,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A204" s="14" t="s">
         <v>1480</v>
       </c>
@@ -20548,7 +20556,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A205" s="14" t="s">
         <v>1482</v>
       </c>
@@ -20558,7 +20566,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A206" s="14" t="s">
         <v>1484</v>
       </c>
@@ -20568,7 +20576,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A207" s="14" t="s">
         <v>1486</v>
       </c>
@@ -20578,7 +20586,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A208" s="14" t="s">
         <v>1488</v>
       </c>
@@ -20588,7 +20596,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A209" s="14" t="s">
         <v>1490</v>
       </c>
@@ -20598,7 +20606,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A210" s="14" t="s">
         <v>802</v>
       </c>
@@ -20608,7 +20616,7 @@
         <v>776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A211" s="14" t="s">
         <v>1492</v>
       </c>
@@ -20618,7 +20626,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A212" s="14" t="s">
         <v>777</v>
       </c>
@@ -20632,7 +20640,7 @@
         <v>750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A213" s="14" t="s">
         <v>778</v>
       </c>
@@ -20642,7 +20650,7 @@
         <v>751</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A214" s="14" t="s">
         <v>779</v>
       </c>
@@ -20656,7 +20664,7 @@
         <v>752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A215" s="14" t="s">
         <v>477</v>
       </c>
@@ -20670,7 +20678,7 @@
         <v>753</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A216" s="14" t="s">
         <v>780</v>
       </c>
@@ -20680,7 +20688,7 @@
         <v>754</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A217" s="14" t="s">
         <v>781</v>
       </c>
@@ -20694,7 +20702,7 @@
         <v>755</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A218" s="14" t="s">
         <v>782</v>
       </c>
@@ -20704,7 +20712,7 @@
         <v>756</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A219" s="14" t="s">
         <v>783</v>
       </c>
@@ -20718,7 +20726,7 @@
         <v>757</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A220" s="14" t="s">
         <v>784</v>
       </c>
@@ -20732,7 +20740,7 @@
         <v>758</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A221" s="14" t="s">
         <v>785</v>
       </c>
@@ -20746,7 +20754,7 @@
         <v>759</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A222" s="14" t="s">
         <v>786</v>
       </c>
@@ -20756,7 +20764,7 @@
         <v>760</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A223" s="14" t="s">
         <v>787</v>
       </c>
@@ -20766,7 +20774,7 @@
         <v>761</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A224" s="14" t="s">
         <v>788</v>
       </c>
@@ -20776,7 +20784,7 @@
         <v>762</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A225" s="14" t="s">
         <v>789</v>
       </c>
@@ -20788,7 +20796,7 @@
         <v>763</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A226" s="14" t="s">
         <v>790</v>
       </c>
@@ -20798,7 +20806,7 @@
         <v>764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A227" s="14" t="s">
         <v>791</v>
       </c>
@@ -20808,7 +20816,7 @@
         <v>765</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A228" s="14" t="s">
         <v>1494</v>
       </c>
@@ -20822,7 +20830,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A229" s="14" t="s">
         <v>1496</v>
       </c>
@@ -20832,7 +20840,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A230" s="14" t="s">
         <v>1498</v>
       </c>
@@ -20842,7 +20850,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A231" s="14" t="s">
         <v>1500</v>
       </c>
@@ -20856,7 +20864,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A232" s="14" t="s">
         <v>1502</v>
       </c>
@@ -20866,7 +20874,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A233" s="14" t="s">
         <v>798</v>
       </c>
@@ -20880,7 +20888,7 @@
         <v>772</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A234" s="14" t="s">
         <v>1504</v>
       </c>
@@ -20894,7 +20902,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A235" s="14" t="s">
         <v>800</v>
       </c>
@@ -20904,7 +20912,7 @@
         <v>774</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A236" s="14" t="s">
         <v>801</v>
       </c>
@@ -20918,7 +20926,7 @@
         <v>775</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A237" s="14" t="s">
         <v>1506</v>
       </c>
@@ -20932,7 +20940,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A238" s="14" t="s">
         <v>1508</v>
       </c>
@@ -20973,22 +20981,22 @@
     <col min="4" max="4" style="19" width="42.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5">
-      <c r="A1" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="6">
+      <c r="A1" s="7" t="s">
         <v>878</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A2" s="9"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="34.5" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="34.5" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>879</v>
       </c>
       <c r="B3" s="50"/>
@@ -20997,7 +21005,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="12"/>
       <c r="B4" s="52" t="s">
         <v>309</v>
@@ -21005,9 +21013,9 @@
       <c r="C4" s="52" t="s">
         <v>881</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+      <c r="D4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="14" t="s">
         <v>879</v>
       </c>
@@ -21017,7 +21025,7 @@
         <v>880</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A6" s="14" t="s">
         <v>882</v>
       </c>
@@ -21027,7 +21035,7 @@
         <v>883</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A7" s="14" t="s">
         <v>884</v>
       </c>
@@ -21041,7 +21049,7 @@
         <v>885</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A8" s="14" t="s">
         <v>886</v>
       </c>
@@ -21055,7 +21063,7 @@
         <v>887</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A9" s="14" t="s">
         <v>888</v>
       </c>
@@ -21065,7 +21073,7 @@
         <v>889</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A10" s="14" t="s">
         <v>890</v>
       </c>
@@ -21075,7 +21083,7 @@
         <v>891</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A11" s="14" t="s">
         <v>892</v>
       </c>
@@ -21085,7 +21093,7 @@
         <v>893</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A12" s="14" t="s">
         <v>894</v>
       </c>
@@ -21099,7 +21107,7 @@
         <v>895</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A13" s="14" t="s">
         <v>896</v>
       </c>
@@ -21109,7 +21117,7 @@
         <v>897</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A14" s="14" t="s">
         <v>898</v>
       </c>
@@ -21119,7 +21127,7 @@
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A15" s="14" t="s">
         <v>900</v>
       </c>
@@ -21129,7 +21137,7 @@
         <v>901</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A16" s="14" t="s">
         <v>902</v>
       </c>
@@ -21139,7 +21147,7 @@
         <v>903</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A17" s="14" t="s">
         <v>904</v>
       </c>
@@ -21149,7 +21157,7 @@
         <v>905</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A18" s="14" t="s">
         <v>906</v>
       </c>
@@ -21159,7 +21167,7 @@
         <v>907</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A19" s="14" t="s">
         <v>908</v>
       </c>
@@ -21169,7 +21177,7 @@
         <v>909</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A20" s="14" t="s">
         <v>910</v>
       </c>
@@ -21179,7 +21187,7 @@
         <v>911</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A21" s="14" t="s">
         <v>912</v>
       </c>
@@ -21189,7 +21197,7 @@
         <v>913</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A22" s="14" t="s">
         <v>914</v>
       </c>
@@ -21203,7 +21211,7 @@
         <v>915</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A23" s="14" t="s">
         <v>916</v>
       </c>
@@ -21213,7 +21221,7 @@
         <v>917</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A24" s="14" t="s">
         <v>918</v>
       </c>
@@ -21223,7 +21231,7 @@
         <v>919</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A25" s="14" t="s">
         <v>920</v>
       </c>
@@ -21233,7 +21241,7 @@
         <v>921</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A26" s="14" t="s">
         <v>922</v>
       </c>
@@ -21243,7 +21251,7 @@
         <v>923</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A27" s="14" t="s">
         <v>924</v>
       </c>
@@ -21253,7 +21261,7 @@
         <v>925</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A28" s="14" t="s">
         <v>926</v>
       </c>
@@ -21263,7 +21271,7 @@
         <v>927</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A29" s="14" t="s">
         <v>629</v>
       </c>
@@ -21273,7 +21281,7 @@
         <v>928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A30" s="14" t="s">
         <v>929</v>
       </c>
@@ -21283,7 +21291,7 @@
         <v>930</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A31" s="14" t="s">
         <v>931</v>
       </c>
@@ -21293,7 +21301,7 @@
         <v>932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A32" s="14" t="s">
         <v>933</v>
       </c>
@@ -21303,7 +21311,7 @@
         <v>934</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A33" s="14" t="s">
         <v>935</v>
       </c>
@@ -21313,7 +21321,7 @@
         <v>936</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A34" s="14" t="s">
         <v>937</v>
       </c>
@@ -21323,7 +21331,7 @@
         <v>938</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A35" s="14" t="s">
         <v>939</v>
       </c>
@@ -21333,7 +21341,7 @@
         <v>940</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A36" s="14" t="s">
         <v>941</v>
       </c>
@@ -21343,7 +21351,7 @@
         <v>942</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A37" s="14" t="s">
         <v>943</v>
       </c>
@@ -21353,7 +21361,7 @@
         <v>944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A38" s="14" t="s">
         <v>945</v>
       </c>
@@ -21363,7 +21371,7 @@
         <v>946</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A39" s="14" t="s">
         <v>947</v>
       </c>
@@ -21373,7 +21381,7 @@
         <v>948</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A40" s="14" t="s">
         <v>949</v>
       </c>
@@ -21387,7 +21395,7 @@
         <v>950</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A41" s="14" t="s">
         <v>951</v>
       </c>
@@ -21397,7 +21405,7 @@
         <v>952</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A42" s="14" t="s">
         <v>953</v>
       </c>
@@ -21407,7 +21415,7 @@
         <v>954</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A43" s="14" t="s">
         <v>955</v>
       </c>
@@ -21417,7 +21425,7 @@
         <v>956</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A44" s="14" t="s">
         <v>957</v>
       </c>
@@ -21427,7 +21435,7 @@
         <v>958</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A45" s="14" t="s">
         <v>959</v>
       </c>
@@ -21437,7 +21445,7 @@
         <v>960</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A46" s="14" t="s">
         <v>961</v>
       </c>
@@ -21451,7 +21459,7 @@
         <v>962</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A47" s="14" t="s">
         <v>963</v>
       </c>
@@ -21461,7 +21469,7 @@
         <v>964</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A48" s="14" t="s">
         <v>965</v>
       </c>
@@ -21471,7 +21479,7 @@
         <v>966</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A49" s="14" t="s">
         <v>967</v>
       </c>
@@ -21485,7 +21493,7 @@
         <v>968</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A50" s="14" t="s">
         <v>969</v>
       </c>
@@ -21495,7 +21503,7 @@
         <v>970</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A51" s="14" t="s">
         <v>971</v>
       </c>
@@ -21505,7 +21513,7 @@
         <v>972</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A52" s="14" t="s">
         <v>973</v>
       </c>
@@ -21515,7 +21523,7 @@
         <v>974</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A53" s="14" t="s">
         <v>533</v>
       </c>
@@ -21529,7 +21537,7 @@
         <v>975</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A54" s="14" t="s">
         <v>976</v>
       </c>
@@ -21543,7 +21551,7 @@
         <v>977</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A55" s="14" t="s">
         <v>978</v>
       </c>
@@ -21553,7 +21561,7 @@
         <v>979</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A56" s="14" t="s">
         <v>980</v>
       </c>
@@ -21563,7 +21571,7 @@
         <v>981</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A57" s="14" t="s">
         <v>963</v>
       </c>
@@ -21577,7 +21585,7 @@
         <v>964</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A58" s="14" t="s">
         <v>982</v>
       </c>
@@ -21587,7 +21595,7 @@
         <v>983</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A59" s="14" t="s">
         <v>984</v>
       </c>
@@ -21597,7 +21605,7 @@
         <v>985</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A60" s="14" t="s">
         <v>986</v>
       </c>
@@ -21607,7 +21615,7 @@
         <v>987</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A61" s="14" t="s">
         <v>988</v>
       </c>
@@ -21617,7 +21625,7 @@
         <v>989</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A62" s="14" t="s">
         <v>990</v>
       </c>
@@ -21631,7 +21639,7 @@
         <v>991</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A63" s="14" t="s">
         <v>992</v>
       </c>
@@ -21641,7 +21649,7 @@
         <v>993</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A64" s="14" t="s">
         <v>994</v>
       </c>
@@ -21655,7 +21663,7 @@
         <v>995</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A65" s="14" t="s">
         <v>996</v>
       </c>
@@ -21665,7 +21673,7 @@
         <v>997</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A66" s="14" t="s">
         <v>998</v>
       </c>
@@ -21679,7 +21687,7 @@
         <v>999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A67" s="14" t="s">
         <v>1000</v>
       </c>
@@ -21689,7 +21697,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A68" s="14" t="s">
         <v>1002</v>
       </c>
@@ -21699,7 +21707,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A69" s="14" t="s">
         <v>1004</v>
       </c>
@@ -21709,7 +21717,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A70" s="14" t="s">
         <v>1006</v>
       </c>
@@ -21723,7 +21731,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A71" s="14" t="s">
         <v>1008</v>
       </c>
@@ -21733,7 +21741,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A72" s="14" t="s">
         <v>1010</v>
       </c>
@@ -21743,7 +21751,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A73" s="14" t="s">
         <v>1012</v>
       </c>
@@ -21753,7 +21761,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A74" s="14" t="s">
         <v>1004</v>
       </c>
@@ -21767,7 +21775,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A75" s="14" t="s">
         <v>1014</v>
       </c>
@@ -21781,7 +21789,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A76" s="14" t="s">
         <v>1016</v>
       </c>
@@ -21791,7 +21799,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A77" s="14" t="s">
         <v>1018</v>
       </c>
@@ -21805,7 +21813,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A78" s="14" t="s">
         <v>1020</v>
       </c>
@@ -21815,7 +21823,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A79" s="14" t="s">
         <v>1022</v>
       </c>
@@ -21825,7 +21833,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A80" s="14" t="s">
         <v>1024</v>
       </c>
@@ -21835,7 +21843,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A81" s="14" t="s">
         <v>1026</v>
       </c>
@@ -21849,7 +21857,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A82" s="14" t="s">
         <v>1028</v>
       </c>
@@ -21863,7 +21871,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A83" s="14" t="s">
         <v>1030</v>
       </c>
@@ -21877,7 +21885,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A84" s="14" t="s">
         <v>1032</v>
       </c>
@@ -21887,7 +21895,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A85" s="14" t="s">
         <v>1034</v>
       </c>
@@ -21901,7 +21909,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A86" s="14" t="s">
         <v>1036</v>
       </c>
@@ -21911,7 +21919,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A87" s="14" t="s">
         <v>1038</v>
       </c>
@@ -21921,7 +21929,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A88" s="14" t="s">
         <v>1040</v>
       </c>
@@ -21931,7 +21939,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A89" s="14" t="s">
         <v>1042</v>
       </c>
@@ -21941,7 +21949,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A90" s="14" t="s">
         <v>1044</v>
       </c>
@@ -21951,7 +21959,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A91" s="14" t="s">
         <v>1046</v>
       </c>
@@ -21961,7 +21969,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A92" s="14" t="s">
         <v>1048</v>
       </c>
@@ -21971,7 +21979,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A93" s="14" t="s">
         <v>1050</v>
       </c>
@@ -21981,7 +21989,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A94" s="14" t="s">
         <v>1052</v>
       </c>
@@ -21991,7 +21999,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A95" s="14" t="s">
         <v>1054</v>
       </c>
@@ -22001,7 +22009,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A96" s="14" t="s">
         <v>1056</v>
       </c>
@@ -22011,7 +22019,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A97" s="14" t="s">
         <v>1058</v>
       </c>
@@ -22021,7 +22029,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A98" s="14" t="s">
         <v>1060</v>
       </c>
@@ -22031,7 +22039,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A99" s="14" t="s">
         <v>1062</v>
       </c>
@@ -22041,7 +22049,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A100" s="14" t="s">
         <v>1064</v>
       </c>
@@ -22051,7 +22059,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A101" s="14" t="s">
         <v>1066</v>
       </c>
@@ -22061,7 +22069,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A102" s="14" t="s">
         <v>1068</v>
       </c>
@@ -22071,7 +22079,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A103" s="14" t="s">
         <v>1070</v>
       </c>
@@ -22081,7 +22089,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A104" s="14" t="s">
         <v>1072</v>
       </c>
@@ -22091,7 +22099,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A105" s="14" t="s">
         <v>1074</v>
       </c>
@@ -22101,7 +22109,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A106" s="14" t="s">
         <v>1076</v>
       </c>
@@ -22115,7 +22123,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A107" s="14" t="s">
         <v>1078</v>
       </c>
@@ -22129,7 +22137,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A108" s="14" t="s">
         <v>1080</v>
       </c>
@@ -22139,7 +22147,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A109" s="14" t="s">
         <v>1082</v>
       </c>
@@ -22153,7 +22161,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A110" s="14" t="s">
         <v>1084</v>
       </c>
@@ -22167,7 +22175,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A111" s="14" t="s">
         <v>1086</v>
       </c>
@@ -22177,7 +22185,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A112" s="14" t="s">
         <v>1088</v>
       </c>
@@ -22191,7 +22199,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A113" s="14" t="s">
         <v>1090</v>
       </c>
@@ -22205,7 +22213,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A114" s="14" t="s">
         <v>1092</v>
       </c>
@@ -22215,7 +22223,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A115" s="14" t="s">
         <v>1094</v>
       </c>
@@ -22225,7 +22233,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A116" s="14" t="s">
         <v>1096</v>
       </c>
@@ -22239,7 +22247,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A117" s="14" t="s">
         <v>1098</v>
       </c>
@@ -22249,7 +22257,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A118" s="14" t="s">
         <v>1100</v>
       </c>
@@ -22259,7 +22267,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A119" s="14" t="s">
         <v>1102</v>
       </c>
@@ -22269,7 +22277,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A120" s="14" t="s">
         <v>1104</v>
       </c>
@@ -22395,23 +22403,23 @@
       <c r="AB2" s="22"/>
       <c r="AC2" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>748</v>
       </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="26" t="s">
         <v>749</v>
       </c>
@@ -22430,7 +22438,7 @@
       <c r="AB3" s="26"/>
       <c r="AC3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="27"/>
       <c r="B4" s="46" t="s">
         <v>750</v>
@@ -22515,7 +22523,7 @@
       </c>
       <c r="AC4" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="12"/>
       <c r="B5" s="28" t="s">
         <v>777</v>
@@ -24195,23 +24203,23 @@
       <c r="AB2" s="22"/>
       <c r="AC2" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>748</v>
       </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="11" t="s">
         <v>749</v>
       </c>
@@ -24230,7 +24238,7 @@
       <c r="AB3" s="26"/>
       <c r="AC3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="27"/>
       <c r="B4" s="46" t="s">
         <v>750</v>
@@ -24315,7 +24323,7 @@
       </c>
       <c r="AC4" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="12"/>
       <c r="B5" s="28" t="s">
         <v>777</v>
@@ -25904,22 +25912,22 @@
     <col min="4" max="4" style="19" width="42.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A1" s="7" t="s">
         <v>497</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A2" s="9"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>498</v>
       </c>
       <c r="B3" s="25"/>
@@ -25928,7 +25936,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="12"/>
       <c r="B4" s="28" t="s">
         <v>309</v>
@@ -25936,9 +25944,9 @@
       <c r="C4" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+      <c r="D4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="14" t="s">
         <v>498</v>
       </c>
@@ -25948,7 +25956,7 @@
         <v>499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A6" s="14" t="s">
         <v>501</v>
       </c>
@@ -25958,7 +25966,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A7" s="14" t="s">
         <v>503</v>
       </c>
@@ -25968,7 +25976,7 @@
         <v>504</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A8" s="14" t="s">
         <v>505</v>
       </c>
@@ -25982,7 +25990,7 @@
         <v>506</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A9" s="14" t="s">
         <v>507</v>
       </c>
@@ -25996,7 +26004,7 @@
         <v>508</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A10" s="14" t="s">
         <v>509</v>
       </c>
@@ -26006,7 +26014,7 @@
         <v>510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A11" s="14" t="s">
         <v>511</v>
       </c>
@@ -26020,7 +26028,7 @@
         <v>512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A12" s="14" t="s">
         <v>513</v>
       </c>
@@ -26034,7 +26042,7 @@
         <v>514</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A13" s="14" t="s">
         <v>515</v>
       </c>
@@ -26048,7 +26056,7 @@
         <v>516</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A14" s="14" t="s">
         <v>517</v>
       </c>
@@ -26058,7 +26066,7 @@
         <v>518</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A15" s="14" t="s">
         <v>519</v>
       </c>
@@ -26068,7 +26076,7 @@
         <v>520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A16" s="14" t="s">
         <v>521</v>
       </c>
@@ -26078,7 +26086,7 @@
         <v>522</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A17" s="14" t="s">
         <v>523</v>
       </c>
@@ -26088,7 +26096,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A18" s="14" t="s">
         <v>525</v>
       </c>
@@ -26098,7 +26106,7 @@
         <v>526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A19" s="14" t="s">
         <v>527</v>
       </c>
@@ -26108,7 +26116,7 @@
         <v>528</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A20" s="14" t="s">
         <v>529</v>
       </c>
@@ -26118,7 +26126,7 @@
         <v>530</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A21" s="14" t="s">
         <v>531</v>
       </c>
@@ -26132,7 +26140,7 @@
         <v>532</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A22" s="14" t="s">
         <v>533</v>
       </c>
@@ -26146,7 +26154,7 @@
         <v>534</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A23" s="14" t="s">
         <v>535</v>
       </c>
@@ -26156,7 +26164,7 @@
         <v>536</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A24" s="14" t="s">
         <v>537</v>
       </c>
@@ -26166,7 +26174,7 @@
         <v>538</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A25" s="14" t="s">
         <v>539</v>
       </c>
@@ -26176,7 +26184,7 @@
         <v>540</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A26" s="14" t="s">
         <v>541</v>
       </c>
@@ -26186,7 +26194,7 @@
         <v>542</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A27" s="14" t="s">
         <v>543</v>
       </c>
@@ -26196,7 +26204,7 @@
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A28" s="14" t="s">
         <v>545</v>
       </c>
@@ -26206,7 +26214,7 @@
         <v>546</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A29" s="14" t="s">
         <v>547</v>
       </c>
@@ -26220,7 +26228,7 @@
         <v>548</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A30" s="14" t="s">
         <v>549</v>
       </c>
@@ -26234,7 +26242,7 @@
         <v>550</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A31" s="14" t="s">
         <v>551</v>
       </c>
@@ -26248,7 +26256,7 @@
         <v>552</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A32" s="14" t="s">
         <v>553</v>
       </c>
@@ -26258,7 +26266,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A33" s="14" t="s">
         <v>555</v>
       </c>
@@ -26268,7 +26276,7 @@
         <v>556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A34" s="14" t="s">
         <v>557</v>
       </c>
@@ -26278,7 +26286,7 @@
         <v>558</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A35" s="14" t="s">
         <v>559</v>
       </c>
@@ -26292,7 +26300,7 @@
         <v>560</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A36" s="14" t="s">
         <v>561</v>
       </c>
@@ -26306,7 +26314,7 @@
         <v>562</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A37" s="14" t="s">
         <v>563</v>
       </c>
@@ -26320,7 +26328,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A38" s="14" t="s">
         <v>565</v>
       </c>
@@ -26330,7 +26338,7 @@
         <v>566</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A39" s="14" t="s">
         <v>567</v>
       </c>
@@ -26344,7 +26352,7 @@
         <v>568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A40" s="14" t="s">
         <v>569</v>
       </c>
@@ -26354,7 +26362,7 @@
         <v>570</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A41" s="14" t="s">
         <v>571</v>
       </c>
@@ -26368,7 +26376,7 @@
         <v>572</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A42" s="14" t="s">
         <v>573</v>
       </c>
@@ -26382,7 +26390,7 @@
         <v>574</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A43" s="14" t="s">
         <v>575</v>
       </c>
@@ -26392,7 +26400,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A44" s="14" t="s">
         <v>577</v>
       </c>
@@ -26402,7 +26410,7 @@
         <v>578</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A45" s="14" t="s">
         <v>579</v>
       </c>
@@ -26412,7 +26420,7 @@
         <v>580</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A46" s="14" t="s">
         <v>581</v>
       </c>
@@ -26422,7 +26430,7 @@
         <v>582</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A47" s="14" t="s">
         <v>583</v>
       </c>
@@ -26432,7 +26440,7 @@
         <v>584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A48" s="14" t="s">
         <v>585</v>
       </c>
@@ -26442,7 +26450,7 @@
         <v>586</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A49" s="14" t="s">
         <v>587</v>
       </c>
@@ -26452,7 +26460,7 @@
         <v>588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A50" s="14" t="s">
         <v>589</v>
       </c>
@@ -26462,7 +26470,7 @@
         <v>590</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A51" s="14" t="s">
         <v>591</v>
       </c>
@@ -26472,7 +26480,7 @@
         <v>592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A52" s="14" t="s">
         <v>593</v>
       </c>
@@ -26482,7 +26490,7 @@
         <v>594</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A53" s="14" t="s">
         <v>595</v>
       </c>
@@ -26496,7 +26504,7 @@
         <v>596</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A54" s="14" t="s">
         <v>597</v>
       </c>
@@ -26506,7 +26514,7 @@
         <v>598</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A55" s="14" t="s">
         <v>599</v>
       </c>
@@ -26516,7 +26524,7 @@
         <v>600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A56" s="14" t="s">
         <v>601</v>
       </c>
@@ -26526,7 +26534,7 @@
         <v>602</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A57" s="14" t="s">
         <v>603</v>
       </c>
@@ -26540,7 +26548,7 @@
         <v>604</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A58" s="14" t="s">
         <v>605</v>
       </c>
@@ -26550,7 +26558,7 @@
         <v>606</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A59" s="14" t="s">
         <v>607</v>
       </c>
@@ -26564,7 +26572,7 @@
         <v>608</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A60" s="14" t="s">
         <v>609</v>
       </c>
@@ -26578,7 +26586,7 @@
         <v>610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A61" s="14" t="s">
         <v>611</v>
       </c>
@@ -26592,7 +26600,7 @@
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A62" s="14" t="s">
         <v>613</v>
       </c>
@@ -26602,7 +26610,7 @@
         <v>614</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A63" s="14" t="s">
         <v>615</v>
       </c>
@@ -26612,7 +26620,7 @@
         <v>616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A64" s="14" t="s">
         <v>617</v>
       </c>
@@ -26622,7 +26630,7 @@
         <v>618</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A65" s="14" t="s">
         <v>619</v>
       </c>
@@ -26636,7 +26644,7 @@
         <v>620</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A66" s="14" t="s">
         <v>621</v>
       </c>
@@ -26646,7 +26654,7 @@
         <v>622</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A67" s="14" t="s">
         <v>623</v>
       </c>
@@ -26656,7 +26664,7 @@
         <v>624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A68" s="14" t="s">
         <v>625</v>
       </c>
@@ -26670,7 +26678,7 @@
         <v>626</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A69" s="14" t="s">
         <v>627</v>
       </c>
@@ -26680,7 +26688,7 @@
         <v>628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A70" s="14" t="s">
         <v>629</v>
       </c>
@@ -26690,7 +26698,7 @@
         <v>630</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A71" s="14" t="s">
         <v>631</v>
       </c>
@@ -26700,7 +26708,7 @@
         <v>632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A72" s="14" t="s">
         <v>633</v>
       </c>
@@ -26710,7 +26718,7 @@
         <v>634</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A73" s="14" t="s">
         <v>635</v>
       </c>
@@ -26724,7 +26732,7 @@
         <v>636</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A74" s="14" t="s">
         <v>637</v>
       </c>
@@ -26738,7 +26746,7 @@
         <v>638</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A75" s="14" t="s">
         <v>639</v>
       </c>
@@ -26748,7 +26756,7 @@
         <v>640</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A76" s="14" t="s">
         <v>641</v>
       </c>
@@ -26762,7 +26770,7 @@
         <v>642</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A77" s="14" t="s">
         <v>643</v>
       </c>
@@ -26772,7 +26780,7 @@
         <v>644</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A78" s="14" t="s">
         <v>645</v>
       </c>
@@ -26786,7 +26794,7 @@
         <v>646</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A79" s="14" t="s">
         <v>647</v>
       </c>
@@ -26800,7 +26808,7 @@
         <v>648</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A80" s="14" t="s">
         <v>649</v>
       </c>
@@ -26814,7 +26822,7 @@
         <v>650</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A81" s="14" t="s">
         <v>651</v>
       </c>
@@ -26824,7 +26832,7 @@
         <v>652</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A82" s="14" t="s">
         <v>653</v>
       </c>
@@ -26834,7 +26842,7 @@
         <v>654</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A83" s="14" t="s">
         <v>655</v>
       </c>
@@ -26844,7 +26852,7 @@
         <v>656</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A84" s="14" t="s">
         <v>657</v>
       </c>
@@ -26854,7 +26862,7 @@
         <v>658</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A85" s="14" t="s">
         <v>659</v>
       </c>
@@ -26864,7 +26872,7 @@
         <v>660</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A86" s="14" t="s">
         <v>661</v>
       </c>
@@ -26874,7 +26882,7 @@
         <v>662</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A87" s="14" t="s">
         <v>663</v>
       </c>
@@ -26884,7 +26892,7 @@
         <v>664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A88" s="14" t="s">
         <v>665</v>
       </c>
@@ -26894,7 +26902,7 @@
         <v>666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A89" s="14" t="s">
         <v>667</v>
       </c>
@@ -26908,7 +26916,7 @@
         <v>668</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A90" s="14" t="s">
         <v>669</v>
       </c>
@@ -26918,7 +26926,7 @@
         <v>670</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A91" s="14" t="s">
         <v>671</v>
       </c>
@@ -26928,7 +26936,7 @@
         <v>672</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A92" s="14" t="s">
         <v>673</v>
       </c>
@@ -26938,7 +26946,7 @@
         <v>674</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A93" s="14" t="s">
         <v>675</v>
       </c>
@@ -26948,7 +26956,7 @@
         <v>676</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A94" s="14" t="s">
         <v>677</v>
       </c>
@@ -26962,7 +26970,7 @@
         <v>678</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A95" s="14" t="s">
         <v>679</v>
       </c>
@@ -26972,7 +26980,7 @@
         <v>680</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A96" s="14" t="s">
         <v>681</v>
       </c>
@@ -26982,7 +26990,7 @@
         <v>682</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A97" s="14" t="s">
         <v>683</v>
       </c>
@@ -26992,7 +27000,7 @@
         <v>684</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A98" s="14" t="s">
         <v>685</v>
       </c>
@@ -27002,7 +27010,7 @@
         <v>686</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A99" s="14" t="s">
         <v>687</v>
       </c>
@@ -27012,7 +27020,7 @@
         <v>688</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A100" s="14" t="s">
         <v>689</v>
       </c>
@@ -27026,7 +27034,7 @@
         <v>690</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A101" s="14" t="s">
         <v>691</v>
       </c>
@@ -27038,7 +27046,7 @@
         <v>692</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A102" s="14" t="s">
         <v>693</v>
       </c>
@@ -27050,7 +27058,7 @@
         <v>694</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A103" s="14" t="s">
         <v>695</v>
       </c>
@@ -27060,7 +27068,7 @@
         <v>696</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A104" s="14" t="s">
         <v>697</v>
       </c>
@@ -27070,7 +27078,7 @@
         <v>698</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A105" s="14" t="s">
         <v>699</v>
       </c>
@@ -27084,7 +27092,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A106" s="14" t="s">
         <v>701</v>
       </c>
@@ -27098,7 +27106,7 @@
         <v>702</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A107" s="14" t="s">
         <v>703</v>
       </c>
@@ -27108,7 +27116,7 @@
         <v>704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A108" s="14" t="s">
         <v>705</v>
       </c>
@@ -27118,7 +27126,7 @@
         <v>706</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A109" s="14" t="s">
         <v>707</v>
       </c>
@@ -27130,7 +27138,7 @@
         <v>708</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A110" s="14" t="s">
         <v>709</v>
       </c>
@@ -27140,7 +27148,7 @@
         <v>710</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A111" s="14" t="s">
         <v>711</v>
       </c>
@@ -27150,7 +27158,7 @@
         <v>712</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A112" s="14" t="s">
         <v>713</v>
       </c>
@@ -27160,7 +27168,7 @@
         <v>714</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A113" s="14" t="s">
         <v>715</v>
       </c>
@@ -27170,7 +27178,7 @@
         <v>716</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A114" s="14" t="s">
         <v>717</v>
       </c>
@@ -27180,7 +27188,7 @@
         <v>718</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A115" s="14" t="s">
         <v>719</v>
       </c>
@@ -27190,7 +27198,7 @@
         <v>720</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A116" s="14" t="s">
         <v>721</v>
       </c>
@@ -27200,7 +27208,7 @@
         <v>722</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A117" s="14" t="s">
         <v>723</v>
       </c>
@@ -27214,7 +27222,7 @@
         <v>724</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A118" s="14" t="s">
         <v>725</v>
       </c>
@@ -27224,7 +27232,7 @@
         <v>726</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A119" s="14" t="s">
         <v>727</v>
       </c>
@@ -27234,7 +27242,7 @@
         <v>728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A120" s="14" t="s">
         <v>729</v>
       </c>
@@ -27248,7 +27256,7 @@
         <v>730</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A121" s="14" t="s">
         <v>731</v>
       </c>
@@ -27258,7 +27266,7 @@
         <v>732</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A122" s="14" t="s">
         <v>733</v>
       </c>
@@ -27272,7 +27280,7 @@
         <v>734</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A123" s="14" t="s">
         <v>735</v>
       </c>
@@ -27286,7 +27294,7 @@
         <v>736</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A124" s="14" t="s">
         <v>737</v>
       </c>
@@ -27300,7 +27308,7 @@
         <v>738</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A125" s="14" t="s">
         <v>739</v>
       </c>
@@ -27314,7 +27322,7 @@
         <v>740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A126" s="14" t="s">
         <v>741</v>
       </c>
@@ -27324,7 +27332,7 @@
         <v>742</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A127" s="14" t="s">
         <v>743</v>
       </c>
@@ -27334,7 +27342,7 @@
         <v>744</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A128" s="14" t="s">
         <v>745</v>
       </c>
@@ -27373,20 +27381,20 @@
     <col min="3" max="3" style="19" width="42.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5">
-      <c r="A1" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="6">
+      <c r="A1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="10">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A3" s="7" t="s">
         <v>405</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -27394,14 +27402,14 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="10">
+      <c r="C4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A5" s="14" t="s">
         <v>405</v>
       </c>
@@ -27410,7 +27418,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A6" s="14" t="s">
         <v>407</v>
       </c>
@@ -27419,7 +27427,7 @@
         <v>408</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A7" s="14" t="s">
         <v>409</v>
       </c>
@@ -27428,7 +27436,7 @@
         <v>410</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A8" s="14" t="s">
         <v>411</v>
       </c>
@@ -27437,7 +27445,7 @@
         <v>412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A9" s="14" t="s">
         <v>313</v>
       </c>
@@ -27446,7 +27454,7 @@
         <v>413</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A10" s="14" t="s">
         <v>414</v>
       </c>
@@ -27455,7 +27463,7 @@
         <v>415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A11" s="14" t="s">
         <v>416</v>
       </c>
@@ -27464,7 +27472,7 @@
         <v>417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A12" s="14" t="s">
         <v>418</v>
       </c>
@@ -27473,7 +27481,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A13" s="14" t="s">
         <v>420</v>
       </c>
@@ -27482,7 +27490,7 @@
         <v>421</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A14" s="14" t="s">
         <v>422</v>
       </c>
@@ -27491,7 +27499,7 @@
         <v>423</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A15" s="14" t="s">
         <v>424</v>
       </c>
@@ -27500,7 +27508,7 @@
         <v>425</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A16" s="14" t="s">
         <v>426</v>
       </c>
@@ -27509,7 +27517,7 @@
         <v>427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A17" s="14" t="s">
         <v>428</v>
       </c>
@@ -27518,7 +27526,7 @@
         <v>429</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A18" s="14" t="s">
         <v>430</v>
       </c>
@@ -27527,7 +27535,7 @@
         <v>431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A19" s="14" t="s">
         <v>432</v>
       </c>
@@ -27536,7 +27544,7 @@
         <v>433</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A20" s="14" t="s">
         <v>434</v>
       </c>
@@ -27545,7 +27553,7 @@
         <v>435</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A21" s="14" t="s">
         <v>436</v>
       </c>
@@ -27554,7 +27562,7 @@
         <v>437</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A22" s="14" t="s">
         <v>438</v>
       </c>
@@ -27563,7 +27571,7 @@
         <v>439</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A23" s="14" t="s">
         <v>440</v>
       </c>
@@ -27572,7 +27580,7 @@
         <v>441</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A24" s="14" t="s">
         <v>442</v>
       </c>
@@ -27581,7 +27589,7 @@
         <v>443</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A25" s="14" t="s">
         <v>444</v>
       </c>
@@ -27590,7 +27598,7 @@
         <v>445</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A26" s="14" t="s">
         <v>446</v>
       </c>
@@ -27599,7 +27607,7 @@
         <v>447</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A27" s="14" t="s">
         <v>448</v>
       </c>
@@ -27608,7 +27616,7 @@
         <v>449</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A28" s="14" t="s">
         <v>450</v>
       </c>
@@ -27617,7 +27625,7 @@
         <v>451</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A29" s="14" t="s">
         <v>452</v>
       </c>
@@ -27626,7 +27634,7 @@
         <v>453</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A30" s="14" t="s">
         <v>454</v>
       </c>
@@ -27635,7 +27643,7 @@
         <v>455</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A31" s="14" t="s">
         <v>381</v>
       </c>
@@ -27644,7 +27652,7 @@
         <v>382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A32" s="14" t="s">
         <v>456</v>
       </c>
@@ -27653,7 +27661,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A33" s="14" t="s">
         <v>458</v>
       </c>
@@ -27662,7 +27670,7 @@
         <v>458</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A34" s="14" t="s">
         <v>459</v>
       </c>
@@ -27671,7 +27679,7 @@
         <v>460</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A35" s="14" t="s">
         <v>461</v>
       </c>
@@ -27680,7 +27688,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A36" s="14" t="s">
         <v>463</v>
       </c>
@@ -27689,7 +27697,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A37" s="14" t="s">
         <v>465</v>
       </c>
@@ -27698,7 +27706,7 @@
         <v>466</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A38" s="14" t="s">
         <v>467</v>
       </c>
@@ -27707,7 +27715,7 @@
         <v>468</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A39" s="14" t="s">
         <v>469</v>
       </c>
@@ -27716,7 +27724,7 @@
         <v>470</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A40" s="14" t="s">
         <v>471</v>
       </c>
@@ -27725,7 +27733,7 @@
         <v>472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A41" s="14" t="s">
         <v>473</v>
       </c>
@@ -27734,7 +27742,7 @@
         <v>474</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A42" s="14" t="s">
         <v>475</v>
       </c>
@@ -27743,7 +27751,7 @@
         <v>476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A43" s="14" t="s">
         <v>477</v>
       </c>
@@ -27752,7 +27760,7 @@
         <v>478</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A44" s="14" t="s">
         <v>479</v>
       </c>
@@ -27761,7 +27769,7 @@
         <v>480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A45" s="14" t="s">
         <v>481</v>
       </c>
@@ -27770,7 +27778,7 @@
         <v>482</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A46" s="14" t="s">
         <v>483</v>
       </c>
@@ -27779,7 +27787,7 @@
         <v>484</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A47" s="14" t="s">
         <v>485</v>
       </c>
@@ -27788,7 +27796,7 @@
         <v>486</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A48" s="14" t="s">
         <v>487</v>
       </c>
@@ -27797,7 +27805,7 @@
         <v>488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A49" s="14" t="s">
         <v>489</v>
       </c>
@@ -27806,7 +27814,7 @@
         <v>490</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A50" s="14" t="s">
         <v>491</v>
       </c>
@@ -27815,7 +27823,7 @@
         <v>492</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A51" s="14" t="s">
         <v>493</v>
       </c>
@@ -27824,7 +27832,7 @@
         <v>494</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="75" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="75" customFormat="1" s="6">
       <c r="A52" s="14" t="s">
         <v>495</v>
       </c>
